--- a/C--Complier/complier/src/main/resources/新建 XLSX 工作表.xlsx
+++ b/C--Complier/complier/src/main/resources/新建 XLSX 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="11520" windowHeight="9275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,24 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>stateId</t>
   </si>
   <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>字母</t>
-  </si>
-  <si>
-    <t>数字</t>
-  </si>
-  <si>
-    <t>下划线</t>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>digit</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
   <si>
     <t>+</t>
@@ -54,7 +48,7 @@
     <t>=</t>
   </si>
   <si>
-    <t>$（空）</t>
+    <t>$</t>
   </si>
   <si>
     <t>&gt;</t>
@@ -84,19 +78,28 @@
     <t>}</t>
   </si>
   <si>
-    <t>逗号</t>
-  </si>
-  <si>
-    <t>分号</t>
-  </si>
-  <si>
-    <t>空格</t>
+    <t>dot</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>\n</t>
   </si>
   <si>
-    <t>其他</t>
+    <t>others</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>7,6</t>
   </si>
 </sst>
 </file>
@@ -119,10 +122,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -574,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,10 +585,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,7 +597,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,13 +606,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,8 +721,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,1256 +1081,1146 @@
   <sheetPr/>
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AA15"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="b">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1">
+        <v>9</v>
+      </c>
+      <c r="P2" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1">
+        <v>13</v>
+      </c>
+      <c r="T2" s="1">
+        <v>13</v>
+      </c>
+      <c r="U2" s="1">
+        <v>13</v>
+      </c>
+      <c r="V2" s="1">
+        <v>13</v>
+      </c>
+      <c r="W2" s="1">
+        <v>13</v>
+      </c>
+      <c r="X2" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>6</v>
-      </c>
-      <c r="L2">
-        <v>7</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>8</v>
-      </c>
-      <c r="O2">
-        <v>9</v>
-      </c>
-      <c r="P2">
-        <v>10</v>
-      </c>
-      <c r="Q2">
-        <v>11</v>
-      </c>
-      <c r="R2">
-        <v>12</v>
-      </c>
-      <c r="S2">
-        <v>13</v>
-      </c>
-      <c r="T2">
-        <v>13</v>
-      </c>
-      <c r="U2">
-        <v>13</v>
-      </c>
-      <c r="V2">
-        <v>13</v>
-      </c>
-      <c r="W2">
-        <v>13</v>
-      </c>
-      <c r="X2">
-        <v>13</v>
-      </c>
-      <c r="Y2">
+      <c r="Z2" s="1">
         <v>1</v>
       </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
+      <c r="AA2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>3</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>3</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>3</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>3</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>3</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>3</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>3</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>3</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>3</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>3</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>3</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>3</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>3</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>3</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="1">
         <v>3</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="1">
         <v>3</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="1">
         <v>3</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="1">
         <v>3</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="1">
         <v>3</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5</v>
+      </c>
+      <c r="P4" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>5</v>
+      </c>
+      <c r="R4" s="1">
+        <v>5</v>
+      </c>
+      <c r="S4" s="1">
+        <v>5</v>
+      </c>
+      <c r="T4" s="1">
+        <v>5</v>
+      </c>
+      <c r="U4" s="1">
+        <v>5</v>
+      </c>
+      <c r="V4" s="1">
+        <v>5</v>
+      </c>
+      <c r="W4" s="1">
+        <v>5</v>
+      </c>
+      <c r="X4" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <v>5</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
-      </c>
-      <c r="R5">
-        <v>5</v>
-      </c>
-      <c r="S5">
-        <v>5</v>
-      </c>
-      <c r="T5">
-        <v>5</v>
-      </c>
-      <c r="U5">
-        <v>5</v>
-      </c>
-      <c r="V5">
-        <v>5</v>
-      </c>
-      <c r="W5">
-        <v>5</v>
-      </c>
-      <c r="X5">
-        <v>5</v>
-      </c>
-      <c r="Y5">
-        <v>5</v>
-      </c>
-      <c r="Z5">
-        <v>5</v>
-      </c>
-      <c r="AA5">
-        <v>5</v>
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>6</v>
+      </c>
+      <c r="M6" s="1">
+        <v>6</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
+      <c r="M7" s="1">
+        <v>6</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
         <v>6</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>6</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <v>6</v>
       </c>
-      <c r="M9">
-        <v>6</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
         <v>6</v>
       </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="A11" s="1">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
         <v>6</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>6</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>6</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
